--- a/CU1.1 Ver Telemarketer.xlsx
+++ b/CU1.1 Ver Telemarketer.xlsx
@@ -55,9 +55,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>Versión</t>
   </si>
   <si>
@@ -82,7 +79,43 @@
     <t>Que el actor tenga los permisos necesarios para ver el registro.</t>
   </si>
   <si>
-    <t>El actor hace clic en el botón "Ver" de algún registro del listado de telekarmeters.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Condicion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> El actor quiere ver el detalle de una oportunidad. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Punto de extensión</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Paso 2.a del CU01 Administracion de Supervisores:  El actor hace clic en el botón "Ver" en algún registro del listado de telemarketers del formulario "Administración de Supervisores".</t>
+    </r>
+  </si>
+  <si>
+    <t>0002</t>
   </si>
 </sst>
 </file>
@@ -181,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -240,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -552,7 +588,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +601,7 @@
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="18">
         <v>42890</v>
@@ -575,39 +611,39 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="23"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="B3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="23"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -643,15 +679,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,22 +699,18 @@
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>2</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>3</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
